--- a/docs/测试诀要.xlsx
+++ b/docs/测试诀要.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -397,7 +397,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -408,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -457,13 +457,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -479,10 +479,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -501,10 +501,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -515,9 +515,20 @@
         <v>5</v>
       </c>
       <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0</v>
       </c>
     </row>

--- a/docs/测试诀要.xlsx
+++ b/docs/测试诀要.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -394,10 +394,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -405,29 +405,29 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -435,43 +435,43 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -479,56 +479,177 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>5</v>
       </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25">
         <v>0</v>
       </c>
     </row>

--- a/docs/测试诀要.xlsx
+++ b/docs/测试诀要.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -430,29 +430,29 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -471,18 +471,18 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>2</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -490,10 +490,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -501,29 +501,29 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -534,10 +534,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -545,10 +545,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -556,43 +556,43 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>26</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -600,21 +600,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -644,13 +644,156 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
+        <v>63</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>63</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>5</v>
       </c>
-      <c r="B25">
+      <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
         <v>26</v>
       </c>
-      <c r="C25">
-        <v>0</v>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>65</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/docs/测试诀要.xlsx
+++ b/docs/测试诀要.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -397,7 +397,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -416,10 +416,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -427,65 +427,65 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7">
         <v>6</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -493,65 +493,65 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -559,65 +559,65 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -625,10 +625,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -636,65 +636,65 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -702,65 +702,65 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -768,32 +768,65 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
         <v>65</v>
       </c>
-      <c r="B38">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>65</v>
+      </c>
+      <c r="B41">
         <v>10</v>
       </c>
-      <c r="C38">
-        <v>9</v>
+      <c r="C41">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/测试诀要.xlsx
+++ b/docs/测试诀要.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -394,10 +394,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -416,10 +416,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -427,10 +427,10 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -460,21 +460,21 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -482,21 +482,21 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -504,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -515,10 +515,10 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -526,54 +526,54 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -581,10 +581,10 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -592,65 +592,65 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -658,10 +658,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -669,164 +669,230 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B39">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
         <v>65</v>
       </c>
-      <c r="B41">
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>65</v>
+      </c>
+      <c r="B47">
         <v>10</v>
       </c>
-      <c r="C41">
-        <v>5</v>
+      <c r="C47">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/docs/测试诀要.xlsx
+++ b/docs/测试诀要.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -479,10 +479,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -493,7 +493,7 @@
         <v>60</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -501,10 +501,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -526,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -556,10 +556,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -578,10 +578,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -589,10 +589,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -677,10 +677,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -702,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -713,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -743,10 +743,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -754,10 +754,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -853,10 +853,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <v>26</v>
@@ -875,10 +875,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -886,12 +886,133 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>64</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>64</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
         <v>65</v>
       </c>
-      <c r="B47">
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>65</v>
+      </c>
+      <c r="B58">
         <v>10</v>
       </c>
-      <c r="C47">
+      <c r="C58">
         <v>7</v>
       </c>
     </row>

--- a/docs/测试诀要.xlsx
+++ b/docs/测试诀要.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -397,7 +397,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -419,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -430,7 +430,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -441,7 +441,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -452,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -463,7 +463,7 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -474,7 +474,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -485,18 +485,18 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -504,32 +504,32 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -537,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -548,10 +548,10 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -570,65 +570,65 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -636,10 +636,10 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -647,10 +647,10 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -658,10 +658,10 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -669,76 +669,76 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -746,10 +746,10 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -757,10 +757,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -768,10 +768,10 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -779,10 +779,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -790,87 +790,87 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B45">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -878,10 +878,10 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -889,98 +889,98 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -988,32 +988,109 @@
         <v>5</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>26</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63">
         <v>65</v>
       </c>
-      <c r="B58">
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
         <v>10</v>
       </c>
-      <c r="C58">
-        <v>7</v>
+      <c r="C65">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/docs/测试诀要.xlsx
+++ b/docs/测试诀要.xlsx
@@ -372,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C65"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>13</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <v>13</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>13</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B44">
         <v>9</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B53">
         <v>13</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <v>13</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B64">
         <v>9</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B65">
         <v>10</v>

--- a/docs/测试诀要.xlsx
+++ b/docs/测试诀要.xlsx
@@ -372,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -397,7 +397,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -419,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -430,7 +430,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -441,7 +441,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -452,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -463,7 +463,7 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -474,7 +474,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -485,7 +485,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -496,7 +496,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -507,7 +507,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -551,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -573,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -584,7 +584,7 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -595,7 +595,7 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -606,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -617,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -650,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -672,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -683,7 +683,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -694,7 +694,7 @@
         <v>22</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -705,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -716,7 +716,7 @@
         <v>13</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -727,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -738,7 +738,7 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -760,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -771,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -793,7 +793,7 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -804,7 +804,7 @@
         <v>26</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -815,7 +815,7 @@
         <v>22</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -826,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -848,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -859,7 +859,7 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -870,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -892,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -903,7 +903,7 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -914,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -925,7 +925,7 @@
         <v>26</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -947,7 +947,7 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -958,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -969,7 +969,7 @@
         <v>9</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -980,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -1002,7 +1002,7 @@
         <v>17</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -1035,7 +1035,7 @@
         <v>26</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -1057,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -1068,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -1079,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -1090,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
